--- a/4_ProjectManagement/Studies/template calc COCOMOII.xlsx
+++ b/4_ProjectManagement/Studies/template calc COCOMOII.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="UPF &amp; LOC" sheetId="1" r:id="rId1"/>
@@ -251,7 +251,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +264,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -477,15 +485,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -509,6 +511,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,7 +800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -801,517 +810,523 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="3" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="12" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="22"/>
+      <c r="G2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="10">
         <v>46</v>
       </c>
-      <c r="I2" s="12">
+      <c r="I2" s="10">
         <v>49</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="10">
         <v>15</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="10">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="22"/>
+      <c r="G3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>53</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>53</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <v>14</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="I5" s="15" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="I5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="13" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4"/>
+      <c r="G6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="13">
+      <c r="H6" s="12"/>
+      <c r="I6" s="11">
         <f>E48*J3</f>
         <v>0</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <f>I6/1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <f>SUM(B4:B6)</f>
         <v>0</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <f t="shared" ref="C7:D7" si="0">SUM(C4:C6)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <f>SUM(B7:D7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13">
+      <c r="H7" s="12"/>
+      <c r="I7" s="11">
         <f>E48*K3</f>
         <v>0</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <f t="shared" ref="J7:J8" si="1">I7/1000</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13">
+      <c r="H8" s="12"/>
+      <c r="I8" s="11">
         <f>E48*H3</f>
         <v>0</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="3" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <f>SUM(B14:B16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <f t="shared" ref="C17" si="2">SUM(C14:C16)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <f t="shared" ref="D17" si="3">SUM(D14:D16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="7">
         <f>SUM(B17:D17)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="6">
         <f>SUM(B24:B26)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="6">
         <f t="shared" ref="C27" si="4">SUM(C24:C26)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="6">
         <f t="shared" ref="D27" si="5">SUM(D24:D26)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="7">
         <f>SUM(B27:D27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3" t="s">
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3"/>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="6"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="8">
+      <c r="B36" s="6">
         <f>SUM(B33:B35)</f>
         <v>0</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="6">
         <f t="shared" ref="C36" si="6">SUM(C33:C35)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="6">
         <f t="shared" ref="D36" si="7">SUM(D33:D35)</f>
         <v>0</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="7">
         <f>SUM(B36:D36)</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="3" t="s">
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="3"/>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="6"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="6"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B45" s="6">
         <f>SUM(B42:B44)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="8">
+      <c r="C45" s="6">
         <f t="shared" ref="C45" si="8">SUM(C42:C44)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45" s="6">
         <f t="shared" ref="D45" si="9">SUM(D42:D44)</f>
         <v>0</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="7">
         <f>SUM(B45:D45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="11">
         <f t="shared" ref="B48:D48" si="10">B7+B17+B27+B36+B45</f>
         <v>0</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="11">
         <f>E7+E17+E27+E36+E45</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="E39:E41"/>
     <mergeCell ref="B40:D40"/>
@@ -1321,12 +1336,6 @@
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="E30:E32"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1353,38 +1362,38 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>2.94</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <f>'UPF &amp; LOC'!J6</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="17">
         <f>'UPF &amp; LOC'!J7</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <f>0.91+0.01*(A11+B11+C11+D11+E11)</f>
         <v>0.91</v>
       </c>
@@ -1393,28 +1402,28 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1425,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1441,51 +1450,51 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="23" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1500,25 +1509,25 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="11" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
@@ -1526,25 +1535,25 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>44</v>
       </c>
       <c r="J7" t="s">
@@ -1557,30 +1566,30 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J9" t="s">
+      <c r="J9" s="23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="11" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
@@ -1588,25 +1597,25 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>44</v>
       </c>
       <c r="J11" t="s">
@@ -1619,30 +1628,30 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J13" t="s">
+      <c r="J13" s="23" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="11" t="s">
         <v>49</v>
       </c>
       <c r="J14" t="s">
@@ -1650,25 +1659,25 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="11" t="s">
         <v>44</v>
       </c>
       <c r="J15" t="s">
@@ -1686,25 +1695,25 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" s="11" t="s">
         <v>49</v>
       </c>
       <c r="J18" t="s">
@@ -1712,25 +1721,25 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="11" t="s">
         <v>44</v>
       </c>
       <c r="J19" t="s">
@@ -1738,7 +1747,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J20" t="s">
+      <c r="J20" s="23" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1748,25 +1757,25 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="11" t="s">
         <v>49</v>
       </c>
       <c r="J22" t="s">
@@ -1774,25 +1783,25 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="13" t="s">
+      <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="11" t="s">
         <v>44</v>
       </c>
       <c r="J23" t="s">
@@ -1805,328 +1814,329 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="13" t="s">
+      <c r="E31" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G34" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="13" t="s">
+      <c r="G35" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="13" t="s">
+      <c r="F43" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D47" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="13" t="s">
+      <c r="E47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="13" t="s">
+      <c r="F47" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G47" s="13" t="s">
+      <c r="G47" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="13" t="s">
+      <c r="E48" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G48" s="13" t="s">
+      <c r="G48" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="D52" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="13" t="s">
+      <c r="E52" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G52" s="13" t="s">
+      <c r="G52" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="13" t="s">
+      <c r="E53" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="13" t="s">
+      <c r="F53" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G53" s="13" t="s">
+      <c r="G53" s="11" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/4_ProjectManagement/Studies/template calc COCOMOII.xlsx
+++ b/4_ProjectManagement/Studies/template calc COCOMOII.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UPF &amp; LOC" sheetId="1" r:id="rId1"/>
     <sheet name="PERSON MONTH" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="EM" sheetId="3" r:id="rId3"/>
+    <sheet name="TDEV" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="83">
   <si>
     <t>EI</t>
   </si>
@@ -245,13 +246,43 @@
   </si>
   <si>
     <t>DA MODIF</t>
+  </si>
+  <si>
+    <t>upper bound</t>
+  </si>
+  <si>
+    <t>TDEV = C * (PM)^F</t>
+  </si>
+  <si>
+    <t>F = D + 0,2 * 0,01 * SUM(FS)</t>
+  </si>
+  <si>
+    <t>B=</t>
+  </si>
+  <si>
+    <t>C=</t>
+  </si>
+  <si>
+    <t>D=</t>
+  </si>
+  <si>
+    <t>= D + 0,2*(E - B)</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>1PM =</t>
+  </si>
+  <si>
+    <t>PH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,8 +304,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,8 +355,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -351,15 +401,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -481,19 +522,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -502,22 +573,36 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -798,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,19 +904,19 @@
       <c r="E1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -845,23 +930,23 @@
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="22"/>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="9">
         <v>46</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>49</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="9">
         <v>15</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="9">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -873,469 +958,632 @@
         <v>3</v>
       </c>
       <c r="E3" s="22"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>53</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>53</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>14</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
+    <row r="4" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="25">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="I5" s="13" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="26">
+        <v>6</v>
+      </c>
+      <c r="I5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="G6" s="11" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="26">
+        <v>4</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="11">
-        <f>E48*J3</f>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10">
+        <f>E63*J2</f>
+        <v>2310</v>
+      </c>
+      <c r="J6" s="10">
+        <f>I6/1000</f>
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="26">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10">
+        <f>E63*K2</f>
+        <v>10318</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" ref="J7:J8" si="0">I7/1000</f>
+        <v>10.318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="26">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="10">
+        <f>E63*H3</f>
+        <v>8162</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="0"/>
+        <v>8.1620000000000008</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5">
+        <f>SUM(B10:B12)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="11">
-        <f>I6/1000</f>
+      <c r="C13" s="5">
+        <f t="shared" ref="C13:D13" si="1">SUM(C10:C12)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6">
-        <f>SUM(B4:B6)</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="6">
-        <f t="shared" ref="C7:D7" si="0">SUM(C4:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <f>SUM(B7:D7)</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="11">
-        <f>E48*K3</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
-        <f t="shared" ref="J7:J8" si="1">I7/1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="11">
-        <f>E48*H3</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="D13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="E13" s="6">
+        <f>SUM(E4:E12)</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="22"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="6">
-        <f>SUM(B14:B16)</f>
+      <c r="B23" s="5">
+        <f>SUM(B20:B22)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="6">
-        <f t="shared" ref="C17" si="2">SUM(C14:C16)</f>
+      <c r="C23" s="5">
+        <f t="shared" ref="C23" si="2">SUM(C20:C22)</f>
         <v>0</v>
       </c>
-      <c r="D17" s="6">
-        <f t="shared" ref="D17" si="3">SUM(D14:D16)</f>
+      <c r="D23" s="5">
+        <f t="shared" ref="D23" si="3">SUM(D20:D22)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="7">
-        <f>SUM(B17:D17)</f>
+      <c r="E23" s="6">
+        <f>SUM(E20:E22)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="5">
+        <f>SUM(B36:B38)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22" t="s">
+      <c r="C39" s="5">
+        <f t="shared" ref="C39" si="4">SUM(C36:C38)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <f t="shared" ref="D39" si="5">SUM(D36:D38)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <f>SUM(E30:E38)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B43" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="22"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="E44" s="22"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="6">
-        <f>SUM(B24:B26)</f>
+      <c r="B50" s="5">
+        <f>SUM(B45:B49)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="6">
-        <f t="shared" ref="C27" si="4">SUM(C24:C26)</f>
+      <c r="C50" s="5">
+        <f>SUM(C45:C49)</f>
         <v>0</v>
       </c>
-      <c r="D27" s="6">
-        <f t="shared" ref="D27" si="5">SUM(D24:D26)</f>
+      <c r="D50" s="5">
+        <f>SUM(D45:D49)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="7">
-        <f>SUM(B27:D27)</f>
+      <c r="E50" s="6">
+        <f>SUM(E45:E49)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="5">
+        <f>SUM(B56:B59)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
+      <c r="C60" s="5">
+        <f>SUM(C56:C59)</f>
+        <v>0</v>
+      </c>
+      <c r="D60" s="5">
+        <f>SUM(D56:D59)</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="6">
+        <f>SUM(E56:E59)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C62" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="6">
-        <f>SUM(B33:B35)</f>
+      <c r="D62" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="10">
+        <f>B13+B23+B39+B50+B60</f>
         <v>0</v>
       </c>
-      <c r="C36" s="6">
-        <f t="shared" ref="C36" si="6">SUM(C33:C35)</f>
+      <c r="C63" s="10">
+        <f>C13+C23+C39+C50+C60</f>
         <v>0</v>
       </c>
-      <c r="D36" s="6">
-        <f t="shared" ref="D36" si="7">SUM(D33:D35)</f>
+      <c r="D63" s="10">
+        <f>D13+D23+D39+D50+D60</f>
         <v>0</v>
       </c>
-      <c r="E36" s="7">
-        <f>SUM(B36:D36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="22"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" s="6">
-        <f>SUM(B42:B44)</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="6">
-        <f t="shared" ref="C45" si="8">SUM(C42:C44)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="6">
-        <f t="shared" ref="D45" si="9">SUM(D42:D44)</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="7">
-        <f>SUM(B45:D45)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="11">
-        <f t="shared" ref="B48:D48" si="10">B7+B17+B27+B36+B45</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="D48" s="11">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="11">
-        <f>E7+E17+E27+E36+E45</f>
-        <v>0</v>
+      <c r="E63" s="10">
+        <f>E13+E23+E39+E50+E60</f>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="B43:D43"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:E3"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1344,10 +1592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1355,75 +1603,142 @@
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="B2">
+        <f>B4*(B7^B9)*EM!K25</f>
+        <v>14.528400229339193</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2">
+        <v>160</v>
+      </c>
+      <c r="O2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <f>B2*N2</f>
+        <v>2324.5440366942707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B4" s="14">
         <v>2.94</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="D4" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.91</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="14">
+        <v>3.67</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" s="14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M4">
+        <f>M3/3</f>
+        <v>774.84801223142358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <f>M4/N2</f>
+        <v>4.8428000764463972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B6" s="15">
         <f>'UPF &amp; LOC'!J6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B7" s="16">
         <f>'UPF &amp; LOC'!J7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
+        <v>10.318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="15">
-        <f>0.91+0.01*(A11+B11+C11+D11+E11)</f>
-        <v>0.91</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="B9" s="14">
+        <f>0.91+0.01*(A12+B12+C12+D12+E12)</f>
+        <v>1.0699000000000001</v>
+      </c>
+      <c r="D9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
+      <c r="F11" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>4.96</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1.01</v>
+      </c>
+      <c r="C12" s="18">
+        <v>4.24</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4.68</v>
+      </c>
+      <c r="F12">
+        <f>SUM(A12:E12)</f>
+        <v>15.99</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1432,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,694 +1759,751 @@
     <col min="10" max="10" width="46.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="K5">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J6" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>44</v>
       </c>
       <c r="J7" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J9" s="23" t="s">
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J10" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="K10">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>44</v>
       </c>
       <c r="J11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J12" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J13" s="23" t="s">
+      <c r="K12">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="K14">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>44</v>
       </c>
       <c r="J15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="K17">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="K18">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>44</v>
       </c>
       <c r="J19" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J20" s="23" t="s">
+      <c r="K19">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="K21">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>49</v>
       </c>
       <c r="J22" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="K22">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J24" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="28">
+        <f>PRODUCT(K4:K8)*PRODUCT(K10:K12)*PRODUCT(K14:K19)*PRODUCT(K21:K22)*K24</f>
+        <v>0.4068409073980459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="F30" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="11" t="s">
+      <c r="F34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="F35" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F38" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="F39" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F42" s="11" t="s">
+      <c r="F42" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="F47" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="F52" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F53" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2139,4 +2511,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1">
+        <f>'PERSON MONTH'!H4*('PERSON MONTH'!B2)^D2</f>
+        <v>8.4577486018994108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2">
+        <f>'PERSON MONTH'!K4+0.2*0.01*'PERSON MONTH'!F12</f>
+        <v>0.31198000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <f>'PERSON MONTH'!K4+0.2*('PERSON MONTH'!B9-'PERSON MONTH'!E4)</f>
+        <v>0.31198000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>